--- a/ClosedXML_Tests/Resource/Examples/Misc/HideUnhide.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Misc/HideUnhide.xlsx
@@ -22,14 +22,7 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="2">
-    <x:font>
-      <x:vertAlign val="baseline"/>
-      <x:sz val="11"/>
-      <x:color rgb="FF000000"/>
-      <x:name val="Calibri"/>
-      <x:family val="2"/>
-    </x:font>
+  <x:fonts count="1">
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>

--- a/ClosedXML_Tests/Resource/Examples/Misc/HideUnhide.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Misc/HideUnhide.xlsx
@@ -75,7 +75,7 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -358,7 +358,7 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>

--- a/ClosedXML_Tests/Resource/Examples/Misc/HideUnhide.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Misc/HideUnhide.xlsx
@@ -375,7 +375,6 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:3" hidden="1"/>
-    <x:row r="2" spans="1:3"/>
     <x:row r="3" spans="1:3" hidden="1"/>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/ClosedXML_Tests/Resource/Examples/Misc/HideUnhide.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Misc/HideUnhide.xlsx
@@ -363,7 +363,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1"/>
+  <x:dimension ref="A1:C3"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
